--- a/sprint 4 backlog.xlsx
+++ b/sprint 4 backlog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21528"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC3729DC-4460-4D54-8BFC-694C2CE7A0A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A628222-9E71-4E9C-B1A3-F7685E45DA40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="16275" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Unique ID</t>
   </si>
@@ -51,22 +51,37 @@
     <t>youssef waly</t>
   </si>
   <si>
+    <t>fatayry</t>
+  </si>
+  <si>
+    <t>reyad</t>
+  </si>
+  <si>
     <t>As logged in lawyer, I want to be able to assign tasks to myself so that I can add it to my due tasks</t>
   </si>
   <si>
     <t>mohamed atef</t>
   </si>
   <si>
+    <t>bassem</t>
+  </si>
+  <si>
+    <t>khaled</t>
+  </si>
+  <si>
     <t>As an unregistered user, I want to be able to register an account using the portal so that I can create an account with username and password so I can access my investor functionalities.</t>
   </si>
   <si>
-    <t>khaled</t>
+    <t>youssef abo bakr</t>
+  </si>
+  <si>
+    <t>omar fatayry</t>
   </si>
   <si>
     <t>As an unregistered and registered user I want to view the electronic journal of approved companies by the reviewer so that I can view them.</t>
   </si>
   <si>
-    <t>youssef abo bakr</t>
+    <t>ahmed hesham</t>
   </si>
   <si>
     <t>As a logged in investor, I want to track my requests/Case status so that I can estimate the time remaining and update my request if needed.</t>
@@ -78,7 +93,7 @@
     <t xml:space="preserve">As a logged in user, I want to be able to edit my profile , so that I can keep my details updated. </t>
   </si>
   <si>
-    <t>ahmed hesham</t>
+    <t>atef</t>
   </si>
   <si>
     <t xml:space="preserve">As a logged in investor, I want to fill a company establishment form so that I can begin the process of establishing my own company. </t>
@@ -87,22 +102,19 @@
     <t>mohamed alaa</t>
   </si>
   <si>
+    <t>andrew</t>
+  </si>
+  <si>
     <t>As a logged in investor, I want to view the estimated fees after filling the company establishment form so that I can pay them upon approval.</t>
   </si>
   <si>
-    <t>bassem</t>
-  </si>
-  <si>
     <t>As a logged in entity employee, I want to access my workpage, so that I could view all my due tasks.</t>
   </si>
   <si>
-    <t>fatayry</t>
+    <t>alaa</t>
   </si>
   <si>
     <t>As a logged in establishment lawyer, I want to add comments to the disapproved applications by me so that I can notify the investor of the problem at hand.</t>
-  </si>
-  <si>
-    <t>andrew</t>
   </si>
 </sst>
 </file>
@@ -498,7 +510,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -542,19 +554,31 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -562,13 +586,19 @@
         <v>1.2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -576,13 +606,19 @@
         <v>1.3</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
+      <c r="F5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -590,13 +626,19 @@
         <v>1.4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -604,13 +646,19 @@
         <v>1.5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -618,13 +666,19 @@
         <v>1.6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -632,13 +686,19 @@
         <v>1.7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -646,13 +706,19 @@
         <v>1.8</v>
       </c>
       <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
+      <c r="F10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -660,13 +726,19 @@
         <v>1.9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
